--- a/tests/for_concat/for_func2_extract_template_info/仅含表头的总表1_基于样表1_无数据.xlsx
+++ b/tests/for_concat/for_func2_extract_template_info/仅含表头的总表1_基于样表1_无数据.xlsx
@@ -1302,41 +1302,95 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="n"/>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="6" t="n"/>
-      <c r="U2" s="6" t="n"/>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="6" t="n"/>
-      <c r="X2" s="6" t="n"/>
-      <c r="Y2" s="6" t="n"/>
-      <c r="Z2" s="6" t="n"/>
-      <c r="AA2" s="6" t="n"/>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="6" t="n"/>
-      <c r="AE2" s="6" t="n"/>
-      <c r="AF2" s="6" t="n"/>
-      <c r="AG2" s="6" t="n"/>
-      <c r="AH2" s="6" t="n"/>
+    <row r="2" ht="56" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>本科/硕士/博士</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>非定向、定向、少数民族骨干计划</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>男/女</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>须为全称</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>新疆内高班/统招普通</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>中共党员、中共预备党员、共青团员、群众</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>阿拉伯数字</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>20210901</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>20250701</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>在读/休学</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>20220901</v>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>新疆地州规范名称</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>新疆地州规范名称</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>农业/非农业</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>新疆地州规范名称</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="n"/>
+      <c r="AA2" s="2" t="n"/>
+      <c r="AB2" s="2" t="n"/>
+      <c r="AC2" s="2" t="n"/>
+      <c r="AD2" s="2" t="n"/>
+      <c r="AE2" s="2" t="n"/>
+      <c r="AF2" s="2" t="n"/>
+      <c r="AG2" s="2" t="n"/>
+      <c r="AH2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="n"/>

--- a/tests/for_concat/for_func2_extract_template_info/仅含表头的总表1_基于样表1_无数据.xlsx
+++ b/tests/for_concat/for_func2_extract_template_info/仅含表头的总表1_基于样表1_无数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18520" windowHeight="7670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21438" windowHeight="11577" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -37,13 +37,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -193,12 +186,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -511,49 +510,52 @@
     <border/>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -563,101 +565,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -674,7 +673,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1090,44 +1095,44 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <cols>
-    <col width="11.2545454545455" customWidth="1" min="1" max="1"/>
-    <col width="8.5" customWidth="1" min="2" max="2"/>
+    <col width="11.256880733945" customWidth="1" min="1" max="1"/>
+    <col width="8.5045871559633" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="4"/>
-    <col width="19.2545454545455" customWidth="1" min="5" max="5"/>
-    <col width="14.7545454545455" customWidth="1" min="6" max="6"/>
-    <col width="17.2545454545455" customWidth="1" min="7" max="7"/>
+    <col width="19.256880733945" customWidth="1" min="5" max="5"/>
+    <col width="14.7522935779817" customWidth="1" min="6" max="6"/>
+    <col width="17.256880733945" customWidth="1" min="7" max="7"/>
     <col width="26" customWidth="1" min="8" max="8"/>
-    <col width="15.5" customWidth="1" min="9" max="9"/>
-    <col width="4.83636363636364" customWidth="1" min="10" max="10"/>
-    <col width="10.3363636363636" customWidth="1" min="11" max="11"/>
-    <col width="8.5" customWidth="1" min="12" max="12"/>
-    <col width="12.3363636363636" customWidth="1" min="13" max="13"/>
-    <col width="30.0818181818182" customWidth="1" min="14" max="14"/>
-    <col width="4.83636363636364" customWidth="1" min="15" max="15"/>
-    <col width="9.08181818181818" customWidth="1" min="16" max="16"/>
+    <col width="15.5045871559633" customWidth="1" min="9" max="9"/>
+    <col width="4.8348623853211" customWidth="1" min="10" max="10"/>
+    <col width="10.3394495412844" customWidth="1" min="11" max="11"/>
+    <col width="8.5045871559633" customWidth="1" min="12" max="12"/>
+    <col width="12.3394495412844" customWidth="1" min="13" max="13"/>
+    <col width="30.0825688073394" customWidth="1" min="14" max="14"/>
+    <col width="4.8348623853211" customWidth="1" min="15" max="15"/>
+    <col width="9.082568807339451" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="8.5" customWidth="1" min="18" max="18"/>
-    <col width="12.3363636363636" customWidth="1" min="19" max="19"/>
-    <col width="22.0818181818182" customWidth="1" min="20" max="20"/>
-    <col width="18.2545454545455" customWidth="1" min="21" max="21"/>
-    <col width="12.3363636363636" customWidth="1" min="22" max="22"/>
-    <col width="8.5" customWidth="1" min="23" max="23"/>
-    <col width="30.0818181818182" customWidth="1" min="24" max="24"/>
-    <col width="22.0818181818182" customWidth="1" min="25" max="25"/>
-    <col width="14.3363636363636" customWidth="1" min="26" max="26"/>
-    <col width="71.08181818181821" customWidth="1" min="27" max="27"/>
-    <col width="13.3363636363636" customWidth="1" min="28" max="28"/>
-    <col width="27.7545454545455" customWidth="1" min="29" max="29"/>
-    <col width="25.8363636363636" customWidth="1" min="30" max="30"/>
-    <col width="8.5" customWidth="1" min="31" max="31"/>
-    <col width="12.3363636363636" customWidth="1" min="32" max="32"/>
+    <col width="8.5045871559633" customWidth="1" min="18" max="18"/>
+    <col width="12.3394495412844" customWidth="1" min="19" max="19"/>
+    <col width="22.0825688073394" customWidth="1" min="20" max="20"/>
+    <col width="18.256880733945" customWidth="1" min="21" max="21"/>
+    <col width="12.3394495412844" customWidth="1" min="22" max="22"/>
+    <col width="8.5045871559633" customWidth="1" min="23" max="23"/>
+    <col width="30.0825688073394" customWidth="1" min="24" max="24"/>
+    <col width="22.0825688073394" customWidth="1" min="25" max="25"/>
+    <col width="14.3394495412844" customWidth="1" min="26" max="26"/>
+    <col width="71.0825688073395" customWidth="1" min="27" max="27"/>
+    <col width="13.3394495412844" customWidth="1" min="28" max="28"/>
+    <col width="27.7522935779816" customWidth="1" min="29" max="29"/>
+    <col width="25.8348623853211" customWidth="1" min="30" max="30"/>
+    <col width="8.5045871559633" customWidth="1" min="31" max="31"/>
+    <col width="12.3394495412844" customWidth="1" min="32" max="32"/>
     <col width="13" customWidth="1" min="33" max="33"/>
-    <col width="27.7545454545455" customWidth="1" min="34" max="34"/>
+    <col width="27.7522935779816" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1302,7 +1307,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="56" customHeight="1">
+    <row r="2" ht="55.3" customHeight="1">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
@@ -1393,40 +1398,40 @@
       <c r="AH2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="6" t="n"/>
-      <c r="U3" s="6" t="n"/>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="6" t="n"/>
-      <c r="X3" s="6" t="n"/>
-      <c r="Y3" s="6" t="n"/>
-      <c r="Z3" s="6" t="n"/>
-      <c r="AA3" s="6" t="n"/>
-      <c r="AB3" s="6" t="n"/>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="6" t="n"/>
-      <c r="AE3" s="6" t="n"/>
-      <c r="AF3" s="6" t="n"/>
-      <c r="AG3" s="6" t="n"/>
-      <c r="AH3" s="6" t="n"/>
+      <c r="A3" s="8" t="n"/>
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
+      <c r="M3" s="8" t="n"/>
+      <c r="N3" s="8" t="n"/>
+      <c r="O3" s="8" t="n"/>
+      <c r="P3" s="8" t="n"/>
+      <c r="Q3" s="8" t="n"/>
+      <c r="R3" s="8" t="n"/>
+      <c r="S3" s="8" t="n"/>
+      <c r="T3" s="8" t="n"/>
+      <c r="U3" s="8" t="n"/>
+      <c r="V3" s="8" t="n"/>
+      <c r="W3" s="8" t="n"/>
+      <c r="X3" s="8" t="n"/>
+      <c r="Y3" s="8" t="n"/>
+      <c r="Z3" s="8" t="n"/>
+      <c r="AA3" s="8" t="n"/>
+      <c r="AB3" s="8" t="n"/>
+      <c r="AC3" s="8" t="n"/>
+      <c r="AD3" s="8" t="n"/>
+      <c r="AE3" s="8" t="n"/>
+      <c r="AF3" s="8" t="n"/>
+      <c r="AG3" s="8" t="n"/>
+      <c r="AH3" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
